--- a/Zig Zag Puzzler/data_analysismode2.xlsx
+++ b/Zig Zag Puzzler/data_analysismode2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\ZIGZAGpuzzler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\Zig Zag Puzzler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE01B1D-C964-41C6-AE1B-58E38024414E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E8030-0417-4A8A-801D-016EE804B1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="90" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Choco</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>OR-Tools</t>
-  </si>
-  <si>
-    <t>Picat</t>
   </si>
   <si>
     <t>Yuck</t>
@@ -2587,7 +2584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4339,7 +4336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13481,8 +13478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:Y136"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13510,10 +13507,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -13522,7 +13519,7 @@
         <v>6</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -15287,25 +15284,25 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="U56" t="s">
+        <v>15</v>
+      </c>
+      <c r="V56" t="s">
         <v>16</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="U56" t="s">
-        <v>16</v>
-      </c>
-      <c r="V56" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -15448,7 +15445,7 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>40</v>
@@ -15457,13 +15454,13 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V63">
         <v>7.52</v>
@@ -15471,7 +15468,7 @@
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>40</v>
@@ -15480,13 +15477,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V64">
         <v>7.05</v>
@@ -15494,7 +15491,7 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>22</v>
@@ -15503,13 +15500,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L65" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="U65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V65">
         <v>264.87</v>
@@ -15517,58 +15514,58 @@
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
         <v>15</v>
       </c>
-      <c r="D84" t="s">
+      <c r="L84" t="s">
         <v>14</v>
       </c>
-      <c r="E84" t="s">
+      <c r="M84" t="s">
         <v>13</v>
       </c>
-      <c r="F84" t="s">
+      <c r="N84" t="s">
         <v>12</v>
       </c>
-      <c r="G84" t="s">
+      <c r="O84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="P84" t="s">
+        <v>10</v>
+      </c>
+      <c r="T84" t="s">
         <v>15</v>
       </c>
-      <c r="M84" t="s">
+      <c r="U84" t="s">
         <v>14</v>
       </c>
-      <c r="N84" t="s">
+      <c r="V84" t="s">
         <v>13</v>
       </c>
-      <c r="O84" t="s">
+      <c r="W84" t="s">
         <v>12</v>
       </c>
-      <c r="P84" t="s">
+      <c r="X84" t="s">
         <v>11</v>
       </c>
-      <c r="T84" t="s">
-        <v>16</v>
-      </c>
-      <c r="U84" t="s">
-        <v>15</v>
-      </c>
-      <c r="V84" t="s">
-        <v>14</v>
-      </c>
-      <c r="W84" t="s">
-        <v>13</v>
-      </c>
-      <c r="X84" t="s">
-        <v>12</v>
-      </c>
       <c r="Y84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.25">
@@ -15909,7 +15906,7 @@
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -15927,7 +15924,7 @@
         <v>8</v>
       </c>
       <c r="K91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L91" s="1">
         <v>1</v>
@@ -15945,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="T91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U91">
         <v>0.47</v>
@@ -15965,7 +15962,7 @@
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -15983,7 +15980,7 @@
         <v>8</v>
       </c>
       <c r="K92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L92" s="1">
         <v>1</v>
@@ -16001,7 +15998,7 @@
         <v>1</v>
       </c>
       <c r="T92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U92">
         <v>2.71</v>
@@ -16021,7 +16018,7 @@
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -16039,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L93" s="1">
         <v>1</v>
@@ -16057,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U93">
         <v>21.68</v>
@@ -16077,22 +16074,22 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -16117,7 +16114,7 @@
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <v>0.47</v>
@@ -16137,7 +16134,7 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116">
         <v>2.71</v>
